--- a/data/Excel/5.1.xlsx
+++ b/data/Excel/5.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svv\Documents\ClientApp_Forms4\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svv\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iQNZp+R+SXxvMJlDwMDUdsBb8w48/1sb2dgdB5I7r7+40v40AwivlqJ7mrcnda71nJQJ41J+ySZ6LQwhV3841w==" workbookSaltValue="FWvWXHbyB3PVlppbNCXMjg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Форма 5.0" sheetId="8" r:id="rId1"/>
@@ -845,8 +845,8 @@
   </sheetPr>
   <dimension ref="A3:B27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
       <c r="B27" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s5x9hZyLcKD0FiT4DEp4+CHGOFngWKWSe5iIT6MjbsAhamkGr1InZbYEVJITyfY3XsfSl/cvnqqTZm3KGLWdsQ==" saltValue="XQGzlMoehNnPqxVqtQLvvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
@@ -1004,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD21"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
